--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sultan/Jobs/Camarones/Jenner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA925CC3-584F-054D-BA71-17D2D876962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04086B7-4FE0-FE40-8037-1B60155F3EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="37420" tabRatio="625" xr2:uid="{FBD9E2A2-EFE7-4A77-BB31-BF1FB3A52DF0}"/>
+    <workbookView xWindow="-51200" yWindow="7620" windowWidth="51200" windowHeight="28300" tabRatio="625" xr2:uid="{FBD9E2A2-EFE7-4A77-BB31-BF1FB3A52DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivo 1" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="90">
   <si>
     <r>
       <t>P</t>
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA9A2B-64EB-4BB4-8523-D09A01BA7547}">
   <dimension ref="A1:V247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243:B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1764,6 +1764,9 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C9" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -1831,6 +1834,9 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -1898,6 +1904,9 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -1965,6 +1974,9 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -2102,6 +2114,9 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -2169,6 +2184,9 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -2236,6 +2254,9 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="28">
         <v>2.3820000000000001</v>
       </c>
@@ -2303,6 +2324,9 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="29">
         <v>2.3820000000000001</v>
       </c>
@@ -2440,6 +2464,9 @@
       <c r="A19" s="1">
         <v>2</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2507,6 +2534,9 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2574,6 +2604,9 @@
       <c r="A21" s="1">
         <v>2</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C21" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2641,6 +2674,9 @@
       <c r="A22" s="1">
         <v>2</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2778,6 +2814,9 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2845,6 +2884,9 @@
       <c r="A25" s="1">
         <v>2</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2912,6 +2954,9 @@
       <c r="A26" s="1">
         <v>2</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="28">
         <v>2.3969999999999998</v>
       </c>
@@ -2979,6 +3024,9 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="29">
         <v>2.3969999999999998</v>
       </c>
@@ -3116,6 +3164,9 @@
       <c r="A29" s="1">
         <v>3</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3183,6 +3234,9 @@
       <c r="A30" s="1">
         <v>3</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C30" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3250,6 +3304,9 @@
       <c r="A31" s="1">
         <v>3</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C31" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3317,6 +3374,9 @@
       <c r="A32" s="1">
         <v>3</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C32" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3454,6 +3514,9 @@
       <c r="A34" s="1">
         <v>3</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3521,6 +3584,9 @@
       <c r="A35" s="1">
         <v>3</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3588,6 +3654,9 @@
       <c r="A36" s="1">
         <v>3</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="28">
         <v>2.3780000000000001</v>
       </c>
@@ -3655,6 +3724,9 @@
       <c r="A37" s="1">
         <v>3</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" s="29">
         <v>2.3780000000000001</v>
       </c>
@@ -3792,6 +3864,9 @@
       <c r="A39" s="1">
         <v>4</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" s="28">
         <v>2.383</v>
       </c>
@@ -3859,6 +3934,9 @@
       <c r="A40" s="1">
         <v>4</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C40" s="28">
         <v>2.383</v>
       </c>
@@ -3926,6 +4004,9 @@
       <c r="A41" s="1">
         <v>4</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" s="28">
         <v>2.383</v>
       </c>
@@ -3993,6 +4074,9 @@
       <c r="A42" s="1">
         <v>4</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="28">
         <v>2.383</v>
       </c>
@@ -4130,6 +4214,9 @@
       <c r="A44" s="1">
         <v>4</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C44" s="28">
         <v>2.383</v>
       </c>
@@ -4197,6 +4284,9 @@
       <c r="A45" s="1">
         <v>4</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C45" s="28">
         <v>2.383</v>
       </c>
@@ -4264,6 +4354,9 @@
       <c r="A46" s="1">
         <v>4</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C46" s="28">
         <v>2.383</v>
       </c>
@@ -4331,6 +4424,9 @@
       <c r="A47" s="1">
         <v>4</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C47" s="29">
         <v>2.383</v>
       </c>
@@ -4468,6 +4564,9 @@
       <c r="A49" s="1">
         <v>5</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C49" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4535,6 +4634,9 @@
       <c r="A50" s="1">
         <v>5</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C50" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4602,6 +4704,9 @@
       <c r="A51" s="1">
         <v>5</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C51" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4669,6 +4774,9 @@
       <c r="A52" s="1">
         <v>5</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C52" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4806,6 +4914,9 @@
       <c r="A54" s="1">
         <v>5</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C54" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4873,6 +4984,9 @@
       <c r="A55" s="1">
         <v>5</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C55" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -4940,6 +5054,9 @@
       <c r="A56" s="1">
         <v>5</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C56" s="28">
         <v>2.3940000000000001</v>
       </c>
@@ -5007,6 +5124,9 @@
       <c r="A57" s="1">
         <v>5</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C57" s="29">
         <v>2.3940000000000001</v>
       </c>
@@ -5144,6 +5264,9 @@
       <c r="A59" s="1">
         <v>6</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C59" s="28">
         <v>2.39</v>
       </c>
@@ -5211,6 +5334,9 @@
       <c r="A60" s="1">
         <v>6</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C60" s="28">
         <v>2.39</v>
       </c>
@@ -5278,6 +5404,9 @@
       <c r="A61" s="1">
         <v>6</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C61" s="28">
         <v>2.39</v>
       </c>
@@ -5345,6 +5474,9 @@
       <c r="A62" s="1">
         <v>6</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C62" s="28">
         <v>2.39</v>
       </c>
@@ -5482,6 +5614,9 @@
       <c r="A64" s="1">
         <v>6</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C64" s="28">
         <v>2.39</v>
       </c>
@@ -5549,6 +5684,9 @@
       <c r="A65" s="1">
         <v>6</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C65" s="28">
         <v>2.39</v>
       </c>
@@ -5616,6 +5754,9 @@
       <c r="A66" s="1">
         <v>6</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C66" s="28">
         <v>2.39</v>
       </c>
@@ -5683,6 +5824,9 @@
       <c r="A67" s="1">
         <v>6</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C67" s="29">
         <v>2.39</v>
       </c>
@@ -5820,6 +5964,9 @@
       <c r="A69" s="1">
         <v>7</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C69" s="28">
         <v>2.38</v>
       </c>
@@ -5887,6 +6034,9 @@
       <c r="A70" s="1">
         <v>7</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C70" s="28">
         <v>2.38</v>
       </c>
@@ -5954,6 +6104,9 @@
       <c r="A71" s="1">
         <v>7</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="28">
         <v>2.38</v>
       </c>
@@ -6021,6 +6174,9 @@
       <c r="A72" s="1">
         <v>7</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C72" s="28">
         <v>2.38</v>
       </c>
@@ -6158,6 +6314,9 @@
       <c r="A74" s="1">
         <v>7</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C74" s="28">
         <v>2.38</v>
       </c>
@@ -6225,6 +6384,9 @@
       <c r="A75" s="1">
         <v>7</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C75" s="28">
         <v>2.38</v>
       </c>
@@ -6292,6 +6454,9 @@
       <c r="A76" s="1">
         <v>7</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C76" s="28">
         <v>2.38</v>
       </c>
@@ -6359,6 +6524,9 @@
       <c r="A77" s="1">
         <v>7</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C77" s="29">
         <v>2.38</v>
       </c>
@@ -6496,6 +6664,9 @@
       <c r="A79" s="1">
         <v>8</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C79" s="28">
         <v>2.375</v>
       </c>
@@ -6563,6 +6734,9 @@
       <c r="A80" s="1">
         <v>8</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C80" s="28">
         <v>2.375</v>
       </c>
@@ -6630,6 +6804,9 @@
       <c r="A81" s="1">
         <v>8</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C81" s="28">
         <v>2.375</v>
       </c>
@@ -6697,6 +6874,9 @@
       <c r="A82" s="1">
         <v>8</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C82" s="28">
         <v>2.375</v>
       </c>
@@ -6834,6 +7014,9 @@
       <c r="A84" s="1">
         <v>8</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C84" s="28">
         <v>2.375</v>
       </c>
@@ -6901,6 +7084,9 @@
       <c r="A85" s="1">
         <v>8</v>
       </c>
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C85" s="28">
         <v>2.375</v>
       </c>
@@ -6968,6 +7154,9 @@
       <c r="A86" s="1">
         <v>8</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C86" s="28">
         <v>2.375</v>
       </c>
@@ -7035,6 +7224,9 @@
       <c r="A87" s="1">
         <v>8</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C87" s="29">
         <v>2.375</v>
       </c>
@@ -7172,6 +7364,9 @@
       <c r="A89" s="1">
         <v>9</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C89" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7239,6 +7434,9 @@
       <c r="A90" s="1">
         <v>9</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C90" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7306,6 +7504,9 @@
       <c r="A91" s="1">
         <v>9</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C91" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7373,6 +7574,9 @@
       <c r="A92" s="1">
         <v>9</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C92" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7510,6 +7714,9 @@
       <c r="A94" s="1">
         <v>9</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C94" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7577,6 +7784,9 @@
       <c r="A95" s="1">
         <v>9</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C95" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7644,6 +7854,9 @@
       <c r="A96" s="1">
         <v>9</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C96" s="28">
         <v>2.3839999999999999</v>
       </c>
@@ -7711,6 +7924,9 @@
       <c r="A97" s="1">
         <v>9</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C97" s="29">
         <v>2.3839999999999999</v>
       </c>
@@ -7848,6 +8064,9 @@
       <c r="A99" s="1">
         <v>10</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -7915,6 +8134,9 @@
       <c r="A100" s="1">
         <v>10</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -7982,6 +8204,9 @@
       <c r="A101" s="1">
         <v>10</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -8049,6 +8274,9 @@
       <c r="A102" s="1">
         <v>10</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C102" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -8186,6 +8414,9 @@
       <c r="A104" s="1">
         <v>10</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C104" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -8253,6 +8484,9 @@
       <c r="A105" s="1">
         <v>10</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C105" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -8320,6 +8554,9 @@
       <c r="A106" s="1">
         <v>10</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C106" s="28">
         <v>2.3889999999999998</v>
       </c>
@@ -8387,6 +8624,9 @@
       <c r="A107" s="1">
         <v>10</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C107" s="29">
         <v>2.3889999999999998</v>
       </c>
@@ -8524,6 +8764,9 @@
       <c r="A109" s="1">
         <v>11</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C109" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8591,6 +8834,9 @@
       <c r="A110" s="1">
         <v>11</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C110" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8658,6 +8904,9 @@
       <c r="A111" s="1">
         <v>11</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C111" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8725,6 +8974,9 @@
       <c r="A112" s="1">
         <v>11</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C112" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8862,6 +9114,9 @@
       <c r="A114" s="1">
         <v>11</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C114" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8929,6 +9184,9 @@
       <c r="A115" s="1">
         <v>11</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C115" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -8996,6 +9254,9 @@
       <c r="A116" s="1">
         <v>11</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C116" s="28">
         <v>2.3730000000000002</v>
       </c>
@@ -9063,6 +9324,9 @@
       <c r="A117" s="1">
         <v>11</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C117" s="29">
         <v>2.3730000000000002</v>
       </c>
@@ -9200,6 +9464,9 @@
       <c r="A119" s="1">
         <v>12</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C119" s="28">
         <v>2.387</v>
       </c>
@@ -9267,6 +9534,9 @@
       <c r="A120" s="1">
         <v>12</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C120" s="28">
         <v>2.387</v>
       </c>
@@ -9334,6 +9604,9 @@
       <c r="A121" s="1">
         <v>12</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C121" s="28">
         <v>2.387</v>
       </c>
@@ -9401,6 +9674,9 @@
       <c r="A122" s="1">
         <v>12</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C122" s="28">
         <v>2.387</v>
       </c>
@@ -9538,6 +9814,9 @@
       <c r="A124" s="1">
         <v>12</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C124" s="28">
         <v>2.387</v>
       </c>
@@ -9605,6 +9884,9 @@
       <c r="A125" s="1">
         <v>12</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C125" s="28">
         <v>2.387</v>
       </c>
@@ -9672,6 +9954,9 @@
       <c r="A126" s="1">
         <v>12</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C126" s="28">
         <v>2.387</v>
       </c>
@@ -9739,6 +10024,9 @@
       <c r="A127" s="1">
         <v>12</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C127" s="29">
         <v>2.387</v>
       </c>
@@ -9876,6 +10164,9 @@
       <c r="A129" s="1">
         <v>13</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C129" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -9943,6 +10234,9 @@
       <c r="A130" s="1">
         <v>13</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C130" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10010,6 +10304,9 @@
       <c r="A131" s="1">
         <v>13</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C131" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10077,6 +10374,9 @@
       <c r="A132" s="1">
         <v>13</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C132" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10214,6 +10514,9 @@
       <c r="A134" s="1">
         <v>13</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C134" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10281,6 +10584,9 @@
       <c r="A135" s="1">
         <v>13</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C135" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10348,6 +10654,9 @@
       <c r="A136" s="1">
         <v>13</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C136" s="54">
         <v>2.3780000000000001</v>
       </c>
@@ -10415,6 +10724,9 @@
       <c r="A137" s="1">
         <v>13</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C137" s="55">
         <v>2.3780000000000001</v>
       </c>
@@ -10552,6 +10864,9 @@
       <c r="A139" s="1">
         <v>14</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C139" s="28">
         <v>2.363</v>
       </c>
@@ -10619,6 +10934,9 @@
       <c r="A140" s="1">
         <v>14</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C140" s="28">
         <v>2.363</v>
       </c>
@@ -10686,6 +11004,9 @@
       <c r="A141" s="1">
         <v>14</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C141" s="28">
         <v>2.363</v>
       </c>
@@ -10753,6 +11074,9 @@
       <c r="A142" s="1">
         <v>14</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C142" s="28">
         <v>2.363</v>
       </c>
@@ -10890,6 +11214,9 @@
       <c r="A144" s="1">
         <v>14</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C144" s="28">
         <v>2.363</v>
       </c>
@@ -10957,6 +11284,9 @@
       <c r="A145" s="1">
         <v>14</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C145" s="28">
         <v>2.363</v>
       </c>
@@ -11024,6 +11354,9 @@
       <c r="A146" s="1">
         <v>14</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C146" s="28">
         <v>2.363</v>
       </c>
@@ -11091,6 +11424,9 @@
       <c r="A147" s="1">
         <v>14</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C147" s="29">
         <v>2.363</v>
       </c>
@@ -11228,6 +11564,9 @@
       <c r="A149" s="1">
         <v>15</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C149" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11295,6 +11634,9 @@
       <c r="A150" s="1">
         <v>15</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C150" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11362,6 +11704,9 @@
       <c r="A151" s="1">
         <v>15</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C151" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11429,6 +11774,9 @@
       <c r="A152" s="1">
         <v>15</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C152" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11566,6 +11914,9 @@
       <c r="A154" s="1">
         <v>15</v>
       </c>
+      <c r="B154" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C154" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11633,6 +11984,9 @@
       <c r="A155" s="1">
         <v>15</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C155" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11700,6 +12054,9 @@
       <c r="A156" s="1">
         <v>15</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C156" s="28">
         <v>2.3679999999999999</v>
       </c>
@@ -11767,6 +12124,9 @@
       <c r="A157" s="1">
         <v>15</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C157" s="29">
         <v>2.3679999999999999</v>
       </c>
@@ -11904,6 +12264,9 @@
       <c r="A159" s="1">
         <v>16</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C159" s="28">
         <v>2.387</v>
       </c>
@@ -11971,6 +12334,9 @@
       <c r="A160" s="1">
         <v>16</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C160" s="28">
         <v>2.387</v>
       </c>
@@ -12038,6 +12404,9 @@
       <c r="A161" s="1">
         <v>16</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C161" s="28">
         <v>2.387</v>
       </c>
@@ -12105,6 +12474,9 @@
       <c r="A162" s="1">
         <v>16</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C162" s="28">
         <v>2.387</v>
       </c>
@@ -12242,6 +12614,9 @@
       <c r="A164" s="1">
         <v>16</v>
       </c>
+      <c r="B164" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C164" s="28">
         <v>2.387</v>
       </c>
@@ -12309,6 +12684,9 @@
       <c r="A165" s="1">
         <v>16</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C165" s="28">
         <v>2.387</v>
       </c>
@@ -12376,6 +12754,9 @@
       <c r="A166" s="1">
         <v>16</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C166" s="28">
         <v>2.387</v>
       </c>
@@ -12443,6 +12824,9 @@
       <c r="A167" s="1">
         <v>16</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C167" s="29">
         <v>2.387</v>
       </c>
@@ -12580,6 +12964,9 @@
       <c r="A169" s="1">
         <v>17</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C169" s="28">
         <v>2.39</v>
       </c>
@@ -12647,6 +13034,9 @@
       <c r="A170" s="1">
         <v>17</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C170" s="28">
         <v>2.39</v>
       </c>
@@ -12714,6 +13104,9 @@
       <c r="A171" s="1">
         <v>17</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C171" s="28">
         <v>2.39</v>
       </c>
@@ -12781,6 +13174,9 @@
       <c r="A172" s="1">
         <v>17</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C172" s="28">
         <v>2.39</v>
       </c>
@@ -12918,6 +13314,9 @@
       <c r="A174" s="1">
         <v>17</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C174" s="28">
         <v>2.39</v>
       </c>
@@ -12985,6 +13384,9 @@
       <c r="A175" s="1">
         <v>17</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C175" s="28">
         <v>2.39</v>
       </c>
@@ -13052,6 +13454,9 @@
       <c r="A176" s="1">
         <v>17</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C176" s="28">
         <v>2.39</v>
       </c>
@@ -13119,6 +13524,9 @@
       <c r="A177" s="1">
         <v>17</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C177" s="29">
         <v>2.39</v>
       </c>
@@ -13256,6 +13664,9 @@
       <c r="A179" s="1">
         <v>18</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C179" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13323,6 +13734,9 @@
       <c r="A180" s="1">
         <v>18</v>
       </c>
+      <c r="B180" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C180" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13390,6 +13804,9 @@
       <c r="A181" s="1">
         <v>18</v>
       </c>
+      <c r="B181" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C181" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13457,6 +13874,9 @@
       <c r="A182" s="1">
         <v>18</v>
       </c>
+      <c r="B182" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C182" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13594,6 +14014,9 @@
       <c r="A184" s="1">
         <v>18</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C184" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13661,6 +14084,9 @@
       <c r="A185" s="1">
         <v>18</v>
       </c>
+      <c r="B185" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C185" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13728,6 +14154,9 @@
       <c r="A186" s="1">
         <v>18</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C186" s="28">
         <v>2.3929999999999998</v>
       </c>
@@ -13795,6 +14224,9 @@
       <c r="A187" s="1">
         <v>18</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C187" s="29">
         <v>2.3929999999999998</v>
       </c>
@@ -13932,6 +14364,9 @@
       <c r="A189" s="1">
         <v>19</v>
       </c>
+      <c r="B189" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C189" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -13999,6 +14434,9 @@
       <c r="A190" s="1">
         <v>19</v>
       </c>
+      <c r="B190" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C190" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14066,6 +14504,9 @@
       <c r="A191" s="1">
         <v>19</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C191" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14133,6 +14574,9 @@
       <c r="A192" s="1">
         <v>19</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C192" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14270,6 +14714,9 @@
       <c r="A194" s="1">
         <v>19</v>
       </c>
+      <c r="B194" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C194" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14337,6 +14784,9 @@
       <c r="A195" s="1">
         <v>19</v>
       </c>
+      <c r="B195" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C195" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14404,6 +14854,9 @@
       <c r="A196" s="1">
         <v>19</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C196" s="28">
         <v>2.4159999999999999</v>
       </c>
@@ -14471,6 +14924,9 @@
       <c r="A197" s="1">
         <v>19</v>
       </c>
+      <c r="B197" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C197" s="29">
         <v>2.4159999999999999</v>
       </c>
@@ -14608,6 +15064,9 @@
       <c r="A199" s="1">
         <v>20</v>
       </c>
+      <c r="B199" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C199" s="28">
         <v>2.37</v>
       </c>
@@ -14675,6 +15134,9 @@
       <c r="A200" s="1">
         <v>20</v>
       </c>
+      <c r="B200" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C200" s="28">
         <v>2.37</v>
       </c>
@@ -14742,6 +15204,9 @@
       <c r="A201" s="1">
         <v>20</v>
       </c>
+      <c r="B201" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C201" s="28">
         <v>2.37</v>
       </c>
@@ -14809,6 +15274,9 @@
       <c r="A202" s="1">
         <v>20</v>
       </c>
+      <c r="B202" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C202" s="28">
         <v>2.37</v>
       </c>
@@ -14946,6 +15414,9 @@
       <c r="A204" s="1">
         <v>20</v>
       </c>
+      <c r="B204" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C204" s="28">
         <v>2.37</v>
       </c>
@@ -15013,6 +15484,9 @@
       <c r="A205" s="1">
         <v>20</v>
       </c>
+      <c r="B205" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C205" s="28">
         <v>2.37</v>
       </c>
@@ -15080,6 +15554,9 @@
       <c r="A206" s="1">
         <v>20</v>
       </c>
+      <c r="B206" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C206" s="28">
         <v>2.37</v>
       </c>
@@ -15147,6 +15624,9 @@
       <c r="A207" s="1">
         <v>20</v>
       </c>
+      <c r="B207" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C207" s="29">
         <v>2.37</v>
       </c>
@@ -15284,6 +15764,9 @@
       <c r="A209" s="1">
         <v>21</v>
       </c>
+      <c r="B209" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C209" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15351,6 +15834,9 @@
       <c r="A210" s="1">
         <v>21</v>
       </c>
+      <c r="B210" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C210" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15418,6 +15904,9 @@
       <c r="A211" s="1">
         <v>21</v>
       </c>
+      <c r="B211" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C211" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15485,6 +15974,9 @@
       <c r="A212" s="1">
         <v>21</v>
       </c>
+      <c r="B212" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C212" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15622,6 +16114,9 @@
       <c r="A214" s="1">
         <v>21</v>
       </c>
+      <c r="B214" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C214" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15689,6 +16184,9 @@
       <c r="A215" s="1">
         <v>21</v>
       </c>
+      <c r="B215" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C215" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15756,6 +16254,9 @@
       <c r="A216" s="1">
         <v>21</v>
       </c>
+      <c r="B216" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C216" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -15823,6 +16324,9 @@
       <c r="A217" s="1">
         <v>21</v>
       </c>
+      <c r="B217" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C217" s="29">
         <v>2.4060000000000001</v>
       </c>
@@ -15960,6 +16464,9 @@
       <c r="A219" s="1">
         <v>22</v>
       </c>
+      <c r="B219" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C219" s="28">
         <v>2.39</v>
       </c>
@@ -16027,6 +16534,9 @@
       <c r="A220" s="1">
         <v>22</v>
       </c>
+      <c r="B220" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C220" s="28">
         <v>2.39</v>
       </c>
@@ -16094,6 +16604,9 @@
       <c r="A221" s="1">
         <v>22</v>
       </c>
+      <c r="B221" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C221" s="28">
         <v>2.39</v>
       </c>
@@ -16161,6 +16674,9 @@
       <c r="A222" s="1">
         <v>22</v>
       </c>
+      <c r="B222" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C222" s="28">
         <v>2.39</v>
       </c>
@@ -16298,6 +16814,9 @@
       <c r="A224" s="1">
         <v>22</v>
       </c>
+      <c r="B224" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C224" s="28">
         <v>2.39</v>
       </c>
@@ -16365,6 +16884,9 @@
       <c r="A225" s="1">
         <v>22</v>
       </c>
+      <c r="B225" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C225" s="28">
         <v>2.39</v>
       </c>
@@ -16432,6 +16954,9 @@
       <c r="A226" s="1">
         <v>22</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C226" s="28">
         <v>2.39</v>
       </c>
@@ -16499,6 +17024,9 @@
       <c r="A227" s="1">
         <v>22</v>
       </c>
+      <c r="B227" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C227" s="29">
         <v>2.39</v>
       </c>
@@ -16636,6 +17164,9 @@
       <c r="A229" s="1">
         <v>23</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C229" s="28">
         <v>2.41</v>
       </c>
@@ -16703,6 +17234,9 @@
       <c r="A230" s="1">
         <v>23</v>
       </c>
+      <c r="B230" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C230" s="28">
         <v>2.41</v>
       </c>
@@ -16770,6 +17304,9 @@
       <c r="A231" s="1">
         <v>23</v>
       </c>
+      <c r="B231" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C231" s="28">
         <v>2.41</v>
       </c>
@@ -16837,6 +17374,9 @@
       <c r="A232" s="1">
         <v>23</v>
       </c>
+      <c r="B232" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C232" s="28">
         <v>2.41</v>
       </c>
@@ -16974,6 +17514,9 @@
       <c r="A234" s="1">
         <v>23</v>
       </c>
+      <c r="B234" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C234" s="28">
         <v>2.41</v>
       </c>
@@ -17041,6 +17584,9 @@
       <c r="A235" s="1">
         <v>23</v>
       </c>
+      <c r="B235" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C235" s="28">
         <v>2.41</v>
       </c>
@@ -17108,6 +17654,9 @@
       <c r="A236" s="1">
         <v>23</v>
       </c>
+      <c r="B236" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C236" s="28">
         <v>2.41</v>
       </c>
@@ -17175,6 +17724,9 @@
       <c r="A237" s="1">
         <v>23</v>
       </c>
+      <c r="B237" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C237" s="29">
         <v>2.41</v>
       </c>
@@ -17312,6 +17864,9 @@
       <c r="A239" s="1">
         <v>24</v>
       </c>
+      <c r="B239" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C239" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17379,6 +17934,9 @@
       <c r="A240" s="1">
         <v>24</v>
       </c>
+      <c r="B240" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C240" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17446,6 +18004,9 @@
       <c r="A241" s="1">
         <v>24</v>
       </c>
+      <c r="B241" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C241" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17513,6 +18074,9 @@
       <c r="A242" s="1">
         <v>24</v>
       </c>
+      <c r="B242" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C242" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17650,6 +18214,9 @@
       <c r="A244" s="1">
         <v>24</v>
       </c>
+      <c r="B244" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C244" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17717,6 +18284,9 @@
       <c r="A245" s="1">
         <v>24</v>
       </c>
+      <c r="B245" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C245" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17784,6 +18354,9 @@
       <c r="A246" s="1">
         <v>24</v>
       </c>
+      <c r="B246" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C246" s="28">
         <v>2.4060000000000001</v>
       </c>
@@ -17850,6 +18423,9 @@
     <row r="247" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>24</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C247" s="29">
         <v>2.4060000000000001</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sultan/Jobs/Camarones/Jenner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC394B3-F83C-8F47-BD96-F92FD0AF439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CADD6-EF95-C44E-9ECC-28616E53EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="7620" windowWidth="51200" windowHeight="28300" tabRatio="625" xr2:uid="{FBD9E2A2-EFE7-4A77-BB31-BF1FB3A52DF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataob1" sheetId="14" r:id="rId1"/>
-    <sheet name="dataob2" sheetId="15" r:id="rId2"/>
+    <sheet name="Indices" sheetId="16" r:id="rId1"/>
+    <sheet name="dataob1" sheetId="14" r:id="rId2"/>
+    <sheet name="dataob2" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,211 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="84">
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seco</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (kg)</t>
-    </r>
-  </si>
-  <si>
-    <t>Gbs</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sum</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (kg)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sss</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (kg)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>% Vacíos (7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±1)</t>
-    </r>
-  </si>
-  <si>
-    <t>N° Prisma</t>
-  </si>
-  <si>
-    <t>N° Viga</t>
-  </si>
-  <si>
-    <t>TMN (mm)</t>
-  </si>
-  <si>
-    <t>N° Viga (fatiga)</t>
-  </si>
-  <si>
-    <t>Deformación unitaria</t>
-  </si>
-  <si>
-    <t>Fecha ensayo</t>
-  </si>
-  <si>
-    <t>Número de ciclos</t>
-  </si>
-  <si>
-    <t>Initial Tensile stress (kPa)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="87">
   <si>
     <t>PRUEBA DE FATIGA</t>
   </si>
   <si>
-    <t>Rigidez inicial (MPa)</t>
-  </si>
-  <si>
-    <t>Rigidez final (Mpa)</t>
-  </si>
-  <si>
-    <t>Asfalto efectivo (%)</t>
-  </si>
-  <si>
-    <t>Asfalto sobre MAC (%)</t>
-  </si>
-  <si>
-    <t>Gmb</t>
-  </si>
-  <si>
-    <t>Gmm</t>
-  </si>
-  <si>
-    <t>Polvo-Asfalto</t>
-  </si>
-  <si>
-    <t>% pasando #4</t>
-  </si>
-  <si>
-    <t>% pasando #8</t>
-  </si>
-  <si>
-    <t>% pasando #200</t>
-  </si>
-  <si>
     <t>PROPIEDADES VOLUMÉTRICAS MAC</t>
-  </si>
-  <si>
-    <t>% pasando 1/2"</t>
-  </si>
-  <si>
-    <t>% vacíos</t>
-  </si>
-  <si>
-    <t>VMA (%)</t>
-  </si>
-  <si>
-    <t>VFA (%)</t>
-  </si>
-  <si>
-    <r>
-      <t>Energía disipada (kJ/m</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Force Amplitude (N)</t>
   </si>
   <si>
     <t>Mezcla N°</t>
@@ -392,14 +194,110 @@
     <t>24B</t>
   </si>
   <si>
-    <t>Vacíos PV</t>
-  </si>
-  <si>
     <t>PRUEBA DE Gbs Y %Vacíos</t>
   </si>
   <si>
+    <t>Gbs-Gmm</t>
+  </si>
+  <si>
+    <t>Gbs-TMN (mm)</t>
+  </si>
+  <si>
+    <t>Gbs-N° Prisma</t>
+  </si>
+  <si>
+    <t>Gbs-N° Viga</t>
+  </si>
+  <si>
     <r>
-      <t>%Vacíos (7</t>
+      <t>Gbs-P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seco</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gbs-P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gbs-P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kg)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gbs-Gmb</t>
+  </si>
+  <si>
+    <r>
+      <t>Gbs-% Vacíos (7</t>
     </r>
     <r>
       <rPr>
@@ -411,6 +309,118 @@
       </rPr>
       <t>±1)</t>
     </r>
+  </si>
+  <si>
+    <t>PVM-Asfalto efectivo (%)</t>
+  </si>
+  <si>
+    <t>PVM-Asfalto sobre MAC (%)</t>
+  </si>
+  <si>
+    <t>PVM-Vacíos PV</t>
+  </si>
+  <si>
+    <t>PVM-Gbs</t>
+  </si>
+  <si>
+    <t>PVM-VMA (%)</t>
+  </si>
+  <si>
+    <t>PVM-VFA (%)</t>
+  </si>
+  <si>
+    <t>PVM-Polvo-Asfalto</t>
+  </si>
+  <si>
+    <t>PVM-% pasando 1/2"</t>
+  </si>
+  <si>
+    <t>PVM-% pasando #4</t>
+  </si>
+  <si>
+    <t>PVM-% pasando #8</t>
+  </si>
+  <si>
+    <t>PVM-% pasando #200</t>
+  </si>
+  <si>
+    <r>
+      <t>Gbs-%Vacíos (7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±1)</t>
+    </r>
+  </si>
+  <si>
+    <t>PDF-Deformación unitaria</t>
+  </si>
+  <si>
+    <t>PDF-N° Viga (fatiga)</t>
+  </si>
+  <si>
+    <t>PDF-Fecha ensayo</t>
+  </si>
+  <si>
+    <t>PDF-Initial Tensile stress (kPa)</t>
+  </si>
+  <si>
+    <t>PDF-Rigidez inicial (MPa)</t>
+  </si>
+  <si>
+    <r>
+      <t>PDF-Energía disipada (kJ/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>PDF-Force Amplitude (N)</t>
+  </si>
+  <si>
+    <t>PDF-Rigidez final (Mpa)</t>
+  </si>
+  <si>
+    <t>PDF-Número de ciclos</t>
+  </si>
+  <si>
+    <t>PVM-% vacíos</t>
+  </si>
+  <si>
+    <t>Gbs-</t>
+  </si>
+  <si>
+    <t>PVM-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDF- </t>
   </si>
 </sst>
 </file>
@@ -1386,25 +1396,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD43B1-287C-704F-A137-C37C0EA7CD46}">
+  <dimension ref="C4:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E81538B-9658-0F4B-8BB8-42EACD4E6829}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -1417,7 +1513,7 @@
       <c r="J1" s="77"/>
       <c r="K1" s="78"/>
       <c r="L1" s="79" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M1" s="79"/>
       <c r="N1" s="79"/>
@@ -1432,70 +1528,70 @@
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O2" s="67" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="P2" s="67" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="67" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="R2" s="67" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="S2" s="67" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="T2" s="67" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="U2" s="67" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="V2" s="67" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1503,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C3" s="24">
         <v>2.3820000000000001</v>
@@ -1573,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C4" s="24">
         <v>2.3820000000000001</v>
@@ -1643,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C5" s="24">
         <v>2.3820000000000001</v>
@@ -1713,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C6" s="24">
         <v>2.3820000000000001</v>
@@ -1783,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C7" s="24">
         <v>2.3820000000000001</v>
@@ -1853,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C8" s="24">
         <v>2.3820000000000001</v>
@@ -1923,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C9" s="24">
         <v>2.3820000000000001</v>
@@ -1993,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C10" s="24">
         <v>2.3820000000000001</v>
@@ -2063,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C11" s="24">
         <v>2.3820000000000001</v>
@@ -2133,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <v>2.3820000000000001</v>
@@ -2203,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C13" s="24">
         <v>2.3969999999999998</v>
@@ -2273,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C14" s="24">
         <v>2.3969999999999998</v>
@@ -2343,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C15" s="24">
         <v>2.3969999999999998</v>
@@ -2413,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C16" s="24">
         <v>2.3969999999999998</v>
@@ -2483,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C17" s="24">
         <v>2.3969999999999998</v>
@@ -2553,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C18" s="24">
         <v>2.3969999999999998</v>
@@ -2623,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" s="24">
         <v>2.3969999999999998</v>
@@ -2693,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C20" s="24">
         <v>2.3969999999999998</v>
@@ -2763,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C21" s="24">
         <v>2.3969999999999998</v>
@@ -2833,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C22" s="25">
         <v>2.3969999999999998</v>
@@ -2903,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C23" s="24">
         <v>2.3780000000000001</v>
@@ -2973,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C24" s="24">
         <v>2.3780000000000001</v>
@@ -3043,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C25" s="24">
         <v>2.3780000000000001</v>
@@ -3113,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C26" s="24">
         <v>2.3780000000000001</v>
@@ -3183,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C27" s="24">
         <v>2.3780000000000001</v>
@@ -3253,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C28" s="24">
         <v>2.3780000000000001</v>
@@ -3323,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C29" s="24">
         <v>2.3780000000000001</v>
@@ -3393,7 +3489,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C30" s="24">
         <v>2.3780000000000001</v>
@@ -3463,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C31" s="24">
         <v>2.3780000000000001</v>
@@ -3533,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C32" s="25">
         <v>2.3780000000000001</v>
@@ -3603,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C33" s="24">
         <v>2.383</v>
@@ -3673,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C34" s="24">
         <v>2.383</v>
@@ -3743,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C35" s="24">
         <v>2.383</v>
@@ -3813,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C36" s="24">
         <v>2.383</v>
@@ -3883,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C37" s="24">
         <v>2.383</v>
@@ -3953,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C38" s="24">
         <v>2.383</v>
@@ -4023,7 +4119,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C39" s="24">
         <v>2.383</v>
@@ -4093,7 +4189,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C40" s="24">
         <v>2.383</v>
@@ -4163,7 +4259,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C41" s="24">
         <v>2.383</v>
@@ -4233,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C42" s="25">
         <v>2.383</v>
@@ -4303,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C43" s="24">
         <v>2.3940000000000001</v>
@@ -4373,7 +4469,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C44" s="24">
         <v>2.3940000000000001</v>
@@ -4443,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C45" s="24">
         <v>2.3940000000000001</v>
@@ -4513,7 +4609,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C46" s="24">
         <v>2.3940000000000001</v>
@@ -4583,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C47" s="24">
         <v>2.3940000000000001</v>
@@ -4653,7 +4749,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C48" s="24">
         <v>2.3940000000000001</v>
@@ -4723,7 +4819,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C49" s="24">
         <v>2.3940000000000001</v>
@@ -4793,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C50" s="24">
         <v>2.3940000000000001</v>
@@ -4863,7 +4959,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C51" s="24">
         <v>2.3940000000000001</v>
@@ -4933,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C52" s="25">
         <v>2.3940000000000001</v>
@@ -5003,7 +5099,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C53" s="24">
         <v>2.39</v>
@@ -5073,7 +5169,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C54" s="24">
         <v>2.39</v>
@@ -5143,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C55" s="24">
         <v>2.39</v>
@@ -5213,7 +5309,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C56" s="24">
         <v>2.39</v>
@@ -5283,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C57" s="24">
         <v>2.39</v>
@@ -5353,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C58" s="24">
         <v>2.39</v>
@@ -5423,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C59" s="24">
         <v>2.39</v>
@@ -5493,7 +5589,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C60" s="24">
         <v>2.39</v>
@@ -5563,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C61" s="24">
         <v>2.39</v>
@@ -5633,7 +5729,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C62" s="25">
         <v>2.39</v>
@@ -5703,7 +5799,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C63" s="24">
         <v>2.38</v>
@@ -5773,7 +5869,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C64" s="24">
         <v>2.38</v>
@@ -5843,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C65" s="24">
         <v>2.38</v>
@@ -5913,7 +6009,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C66" s="24">
         <v>2.38</v>
@@ -5983,7 +6079,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C67" s="24">
         <v>2.38</v>
@@ -6053,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C68" s="24">
         <v>2.38</v>
@@ -6123,7 +6219,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C69" s="24">
         <v>2.38</v>
@@ -6193,7 +6289,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C70" s="24">
         <v>2.38</v>
@@ -6263,7 +6359,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C71" s="24">
         <v>2.38</v>
@@ -6333,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C72" s="25">
         <v>2.38</v>
@@ -6403,7 +6499,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C73" s="24">
         <v>2.375</v>
@@ -6473,7 +6569,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C74" s="24">
         <v>2.375</v>
@@ -6543,7 +6639,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C75" s="24">
         <v>2.375</v>
@@ -6613,7 +6709,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C76" s="24">
         <v>2.375</v>
@@ -6683,7 +6779,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C77" s="24">
         <v>2.375</v>
@@ -6753,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C78" s="24">
         <v>2.375</v>
@@ -6823,7 +6919,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C79" s="24">
         <v>2.375</v>
@@ -6893,7 +6989,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C80" s="24">
         <v>2.375</v>
@@ -6963,7 +7059,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C81" s="24">
         <v>2.375</v>
@@ -7033,7 +7129,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C82" s="25">
         <v>2.375</v>
@@ -7103,7 +7199,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C83" s="24">
         <v>2.3839999999999999</v>
@@ -7173,7 +7269,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C84" s="24">
         <v>2.3839999999999999</v>
@@ -7243,7 +7339,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C85" s="24">
         <v>2.3839999999999999</v>
@@ -7313,7 +7409,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C86" s="24">
         <v>2.3839999999999999</v>
@@ -7383,7 +7479,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C87" s="24">
         <v>2.3839999999999999</v>
@@ -7453,7 +7549,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C88" s="24">
         <v>2.3839999999999999</v>
@@ -7523,7 +7619,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C89" s="24">
         <v>2.3839999999999999</v>
@@ -7593,7 +7689,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C90" s="24">
         <v>2.3839999999999999</v>
@@ -7663,7 +7759,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C91" s="24">
         <v>2.3839999999999999</v>
@@ -7733,7 +7829,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C92" s="25">
         <v>2.3839999999999999</v>
@@ -7803,7 +7899,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C93" s="24">
         <v>2.3889999999999998</v>
@@ -7873,7 +7969,7 @@
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C94" s="24">
         <v>2.3889999999999998</v>
@@ -7943,7 +8039,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C95" s="24">
         <v>2.3889999999999998</v>
@@ -8013,7 +8109,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C96" s="24">
         <v>2.3889999999999998</v>
@@ -8083,7 +8179,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C97" s="24">
         <v>2.3889999999999998</v>
@@ -8153,7 +8249,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C98" s="24">
         <v>2.3889999999999998</v>
@@ -8223,7 +8319,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C99" s="24">
         <v>2.3889999999999998</v>
@@ -8293,7 +8389,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C100" s="24">
         <v>2.3889999999999998</v>
@@ -8363,7 +8459,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C101" s="24">
         <v>2.3889999999999998</v>
@@ -8433,7 +8529,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C102" s="25">
         <v>2.3889999999999998</v>
@@ -8503,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C103" s="24">
         <v>2.3730000000000002</v>
@@ -8573,7 +8669,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C104" s="24">
         <v>2.3730000000000002</v>
@@ -8643,7 +8739,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C105" s="24">
         <v>2.3730000000000002</v>
@@ -8713,7 +8809,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C106" s="24">
         <v>2.3730000000000002</v>
@@ -8783,7 +8879,7 @@
         <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C107" s="24">
         <v>2.3730000000000002</v>
@@ -8853,7 +8949,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C108" s="24">
         <v>2.3730000000000002</v>
@@ -8923,7 +9019,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C109" s="24">
         <v>2.3730000000000002</v>
@@ -8993,7 +9089,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C110" s="24">
         <v>2.3730000000000002</v>
@@ -9063,7 +9159,7 @@
         <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C111" s="24">
         <v>2.3730000000000002</v>
@@ -9133,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C112" s="25">
         <v>2.3730000000000002</v>
@@ -9203,7 +9299,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C113" s="24">
         <v>2.387</v>
@@ -9273,7 +9369,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C114" s="24">
         <v>2.387</v>
@@ -9343,7 +9439,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C115" s="24">
         <v>2.387</v>
@@ -9413,7 +9509,7 @@
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C116" s="24">
         <v>2.387</v>
@@ -9483,7 +9579,7 @@
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C117" s="24">
         <v>2.387</v>
@@ -9553,7 +9649,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C118" s="24">
         <v>2.387</v>
@@ -9623,7 +9719,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C119" s="24">
         <v>2.387</v>
@@ -9693,7 +9789,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C120" s="24">
         <v>2.387</v>
@@ -9763,7 +9859,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C121" s="24">
         <v>2.387</v>
@@ -9833,7 +9929,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C122" s="25">
         <v>2.387</v>
@@ -9903,7 +9999,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C123" s="49">
         <v>2.3780000000000001</v>
@@ -9973,7 +10069,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C124" s="49">
         <v>2.3780000000000001</v>
@@ -10043,7 +10139,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C125" s="49">
         <v>2.3780000000000001</v>
@@ -10113,7 +10209,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C126" s="49">
         <v>2.3780000000000001</v>
@@ -10183,7 +10279,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C127" s="49">
         <v>2.3780000000000001</v>
@@ -10253,7 +10349,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C128" s="49">
         <v>2.3780000000000001</v>
@@ -10323,7 +10419,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C129" s="49">
         <v>2.3780000000000001</v>
@@ -10393,7 +10489,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C130" s="49">
         <v>2.3780000000000001</v>
@@ -10463,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C131" s="49">
         <v>2.3780000000000001</v>
@@ -10533,7 +10629,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C132" s="50">
         <v>2.3780000000000001</v>
@@ -10603,7 +10699,7 @@
         <v>14</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C133" s="24">
         <v>2.363</v>
@@ -10673,7 +10769,7 @@
         <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C134" s="24">
         <v>2.363</v>
@@ -10743,7 +10839,7 @@
         <v>14</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C135" s="24">
         <v>2.363</v>
@@ -10813,7 +10909,7 @@
         <v>14</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C136" s="24">
         <v>2.363</v>
@@ -10883,7 +10979,7 @@
         <v>14</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C137" s="24">
         <v>2.363</v>
@@ -10953,7 +11049,7 @@
         <v>14</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C138" s="24">
         <v>2.363</v>
@@ -11023,7 +11119,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C139" s="24">
         <v>2.363</v>
@@ -11093,7 +11189,7 @@
         <v>14</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C140" s="24">
         <v>2.363</v>
@@ -11163,7 +11259,7 @@
         <v>14</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C141" s="24">
         <v>2.363</v>
@@ -11233,7 +11329,7 @@
         <v>14</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C142" s="25">
         <v>2.363</v>
@@ -11303,7 +11399,7 @@
         <v>15</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C143" s="24">
         <v>2.3679999999999999</v>
@@ -11373,7 +11469,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C144" s="24">
         <v>2.3679999999999999</v>
@@ -11443,7 +11539,7 @@
         <v>15</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C145" s="24">
         <v>2.3679999999999999</v>
@@ -11513,7 +11609,7 @@
         <v>15</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C146" s="24">
         <v>2.3679999999999999</v>
@@ -11583,7 +11679,7 @@
         <v>15</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C147" s="24">
         <v>2.3679999999999999</v>
@@ -11653,7 +11749,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C148" s="24">
         <v>2.3679999999999999</v>
@@ -11723,7 +11819,7 @@
         <v>15</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C149" s="24">
         <v>2.3679999999999999</v>
@@ -11793,7 +11889,7 @@
         <v>15</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C150" s="24">
         <v>2.3679999999999999</v>
@@ -11863,7 +11959,7 @@
         <v>15</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C151" s="24">
         <v>2.3679999999999999</v>
@@ -11933,7 +12029,7 @@
         <v>15</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C152" s="25">
         <v>2.3679999999999999</v>
@@ -12003,7 +12099,7 @@
         <v>16</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C153" s="24">
         <v>2.387</v>
@@ -12073,7 +12169,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C154" s="24">
         <v>2.387</v>
@@ -12143,7 +12239,7 @@
         <v>16</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C155" s="24">
         <v>2.387</v>
@@ -12213,7 +12309,7 @@
         <v>16</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C156" s="24">
         <v>2.387</v>
@@ -12283,7 +12379,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C157" s="24">
         <v>2.387</v>
@@ -12353,7 +12449,7 @@
         <v>16</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C158" s="24">
         <v>2.387</v>
@@ -12423,7 +12519,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C159" s="24">
         <v>2.387</v>
@@ -12493,7 +12589,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C160" s="24">
         <v>2.387</v>
@@ -12563,7 +12659,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C161" s="24">
         <v>2.387</v>
@@ -12633,7 +12729,7 @@
         <v>16</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C162" s="25">
         <v>2.387</v>
@@ -12703,7 +12799,7 @@
         <v>17</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C163" s="24">
         <v>2.39</v>
@@ -12773,7 +12869,7 @@
         <v>17</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C164" s="24">
         <v>2.39</v>
@@ -12843,7 +12939,7 @@
         <v>17</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C165" s="24">
         <v>2.39</v>
@@ -12913,7 +13009,7 @@
         <v>17</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C166" s="24">
         <v>2.39</v>
@@ -12983,7 +13079,7 @@
         <v>17</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C167" s="24">
         <v>2.39</v>
@@ -13053,7 +13149,7 @@
         <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C168" s="24">
         <v>2.39</v>
@@ -13123,7 +13219,7 @@
         <v>17</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C169" s="24">
         <v>2.39</v>
@@ -13193,7 +13289,7 @@
         <v>17</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C170" s="24">
         <v>2.39</v>
@@ -13263,7 +13359,7 @@
         <v>17</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C171" s="24">
         <v>2.39</v>
@@ -13333,7 +13429,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C172" s="25">
         <v>2.39</v>
@@ -13403,7 +13499,7 @@
         <v>18</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C173" s="24">
         <v>2.3929999999999998</v>
@@ -13473,7 +13569,7 @@
         <v>18</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C174" s="24">
         <v>2.3929999999999998</v>
@@ -13543,7 +13639,7 @@
         <v>18</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C175" s="24">
         <v>2.3929999999999998</v>
@@ -13613,7 +13709,7 @@
         <v>18</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C176" s="24">
         <v>2.3929999999999998</v>
@@ -13683,7 +13779,7 @@
         <v>18</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C177" s="24">
         <v>2.3929999999999998</v>
@@ -13753,7 +13849,7 @@
         <v>18</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C178" s="24">
         <v>2.3929999999999998</v>
@@ -13823,7 +13919,7 @@
         <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C179" s="24">
         <v>2.3929999999999998</v>
@@ -13893,7 +13989,7 @@
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C180" s="24">
         <v>2.3929999999999998</v>
@@ -13963,7 +14059,7 @@
         <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C181" s="24">
         <v>2.3929999999999998</v>
@@ -14033,7 +14129,7 @@
         <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C182" s="25">
         <v>2.3929999999999998</v>
@@ -14103,7 +14199,7 @@
         <v>19</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C183" s="24">
         <v>2.4159999999999999</v>
@@ -14173,7 +14269,7 @@
         <v>19</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C184" s="24">
         <v>2.4159999999999999</v>
@@ -14243,7 +14339,7 @@
         <v>19</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C185" s="24">
         <v>2.4159999999999999</v>
@@ -14313,7 +14409,7 @@
         <v>19</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C186" s="24">
         <v>2.4159999999999999</v>
@@ -14383,7 +14479,7 @@
         <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C187" s="24">
         <v>2.4159999999999999</v>
@@ -14453,7 +14549,7 @@
         <v>19</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C188" s="24">
         <v>2.4159999999999999</v>
@@ -14523,7 +14619,7 @@
         <v>19</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C189" s="24">
         <v>2.4159999999999999</v>
@@ -14593,7 +14689,7 @@
         <v>19</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C190" s="24">
         <v>2.4159999999999999</v>
@@ -14663,7 +14759,7 @@
         <v>19</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C191" s="24">
         <v>2.4159999999999999</v>
@@ -14733,7 +14829,7 @@
         <v>19</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C192" s="25">
         <v>2.4159999999999999</v>
@@ -14803,7 +14899,7 @@
         <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C193" s="24">
         <v>2.37</v>
@@ -14873,7 +14969,7 @@
         <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C194" s="24">
         <v>2.37</v>
@@ -14943,7 +15039,7 @@
         <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C195" s="24">
         <v>2.37</v>
@@ -15013,7 +15109,7 @@
         <v>20</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C196" s="24">
         <v>2.37</v>
@@ -15083,7 +15179,7 @@
         <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C197" s="24">
         <v>2.37</v>
@@ -15153,7 +15249,7 @@
         <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C198" s="24">
         <v>2.37</v>
@@ -15223,7 +15319,7 @@
         <v>20</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C199" s="24">
         <v>2.37</v>
@@ -15293,7 +15389,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C200" s="24">
         <v>2.37</v>
@@ -15363,7 +15459,7 @@
         <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C201" s="24">
         <v>2.37</v>
@@ -15433,7 +15529,7 @@
         <v>20</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C202" s="25">
         <v>2.37</v>
@@ -15503,7 +15599,7 @@
         <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C203" s="24">
         <v>2.4060000000000001</v>
@@ -15573,7 +15669,7 @@
         <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C204" s="24">
         <v>2.4060000000000001</v>
@@ -15643,7 +15739,7 @@
         <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C205" s="24">
         <v>2.4060000000000001</v>
@@ -15713,7 +15809,7 @@
         <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C206" s="24">
         <v>2.4060000000000001</v>
@@ -15783,7 +15879,7 @@
         <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C207" s="24">
         <v>2.4060000000000001</v>
@@ -15853,7 +15949,7 @@
         <v>21</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C208" s="24">
         <v>2.4060000000000001</v>
@@ -15923,7 +16019,7 @@
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C209" s="24">
         <v>2.4060000000000001</v>
@@ -15993,7 +16089,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C210" s="24">
         <v>2.4060000000000001</v>
@@ -16063,7 +16159,7 @@
         <v>21</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C211" s="24">
         <v>2.4060000000000001</v>
@@ -16133,7 +16229,7 @@
         <v>21</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C212" s="25">
         <v>2.4060000000000001</v>
@@ -16203,7 +16299,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C213" s="24">
         <v>2.39</v>
@@ -16273,7 +16369,7 @@
         <v>22</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C214" s="24">
         <v>2.39</v>
@@ -16343,7 +16439,7 @@
         <v>22</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C215" s="24">
         <v>2.39</v>
@@ -16413,7 +16509,7 @@
         <v>22</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C216" s="24">
         <v>2.39</v>
@@ -16483,7 +16579,7 @@
         <v>22</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C217" s="24">
         <v>2.39</v>
@@ -16553,7 +16649,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C218" s="24">
         <v>2.39</v>
@@ -16623,7 +16719,7 @@
         <v>22</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C219" s="24">
         <v>2.39</v>
@@ -16693,7 +16789,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C220" s="24">
         <v>2.39</v>
@@ -16763,7 +16859,7 @@
         <v>22</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C221" s="24">
         <v>2.39</v>
@@ -16833,7 +16929,7 @@
         <v>22</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C222" s="25">
         <v>2.39</v>
@@ -16903,7 +16999,7 @@
         <v>23</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C223" s="24">
         <v>2.41</v>
@@ -16973,7 +17069,7 @@
         <v>23</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C224" s="24">
         <v>2.41</v>
@@ -17043,7 +17139,7 @@
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C225" s="24">
         <v>2.41</v>
@@ -17113,7 +17209,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C226" s="24">
         <v>2.41</v>
@@ -17183,7 +17279,7 @@
         <v>23</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C227" s="24">
         <v>2.41</v>
@@ -17253,7 +17349,7 @@
         <v>23</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C228" s="24">
         <v>2.41</v>
@@ -17323,7 +17419,7 @@
         <v>23</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C229" s="24">
         <v>2.41</v>
@@ -17393,7 +17489,7 @@
         <v>23</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C230" s="24">
         <v>2.41</v>
@@ -17463,7 +17559,7 @@
         <v>23</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C231" s="24">
         <v>2.41</v>
@@ -17533,7 +17629,7 @@
         <v>23</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C232" s="25">
         <v>2.41</v>
@@ -17603,7 +17699,7 @@
         <v>24</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C233" s="24">
         <v>2.4060000000000001</v>
@@ -17673,7 +17769,7 @@
         <v>24</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C234" s="24">
         <v>2.4060000000000001</v>
@@ -17743,7 +17839,7 @@
         <v>24</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C235" s="24">
         <v>2.4060000000000001</v>
@@ -17813,7 +17909,7 @@
         <v>24</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C236" s="24">
         <v>2.4060000000000001</v>
@@ -17883,7 +17979,7 @@
         <v>24</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C237" s="24">
         <v>2.4060000000000001</v>
@@ -17953,7 +18049,7 @@
         <v>24</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C238" s="24">
         <v>2.4060000000000001</v>
@@ -18023,7 +18119,7 @@
         <v>24</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C239" s="24">
         <v>2.4060000000000001</v>
@@ -18093,7 +18189,7 @@
         <v>24</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C240" s="24">
         <v>2.4060000000000001</v>
@@ -18163,7 +18259,7 @@
         <v>24</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C241" s="24">
         <v>2.4060000000000001</v>
@@ -18233,7 +18329,7 @@
         <v>24</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C242" s="25">
         <v>2.4060000000000001</v>
@@ -18316,19 +18412,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E096407-6D50-414E-9F35-F631B922309B}">
   <dimension ref="A1:AE242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="L1" sqref="L1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="82" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -18341,7 +18458,7 @@
       <c r="J1" s="83"/>
       <c r="K1" s="83"/>
       <c r="L1" s="84" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M1" s="85"/>
       <c r="N1" s="85"/>
@@ -18352,7 +18469,7 @@
       <c r="S1" s="85"/>
       <c r="T1" s="86"/>
       <c r="U1" s="80" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V1" s="80"/>
       <c r="W1" s="80"/>
@@ -18367,97 +18484,97 @@
     </row>
     <row r="2" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="X2" s="72" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="72" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="72" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="72" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="72" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="72" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="72" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="72" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -18465,7 +18582,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C3" s="24">
         <v>2.3820000000000001</v>
@@ -18546,7 +18663,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C4" s="24">
         <v>2.3820000000000001</v>
@@ -18643,7 +18760,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C5" s="24">
         <v>2.3820000000000001</v>
@@ -18740,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C6" s="24">
         <v>2.3820000000000001</v>
@@ -18837,7 +18954,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C7" s="24">
         <v>2.3820000000000001</v>
@@ -18934,7 +19051,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C8" s="24">
         <v>2.3820000000000001</v>
@@ -19015,7 +19132,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C9" s="24">
         <v>2.3820000000000001</v>
@@ -19112,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C10" s="24">
         <v>2.3820000000000001</v>
@@ -19210,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C11" s="24">
         <v>2.3820000000000001</v>
@@ -19307,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <v>2.3820000000000001</v>
@@ -19404,7 +19521,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C13" s="24">
         <v>2.3969999999999998</v>
@@ -19485,7 +19602,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C14" s="24">
         <v>2.3969999999999998</v>
@@ -19582,7 +19699,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C15" s="24">
         <v>2.3969999999999998</v>
@@ -19679,7 +19796,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C16" s="24">
         <v>2.3969999999999998</v>
@@ -19776,7 +19893,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C17" s="24">
         <v>2.3969999999999998</v>
@@ -19873,7 +19990,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C18" s="24">
         <v>2.3969999999999998</v>
@@ -19954,7 +20071,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" s="24">
         <v>2.3969999999999998</v>
@@ -20051,7 +20168,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C20" s="24">
         <v>2.3969999999999998</v>
@@ -20148,7 +20265,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C21" s="24">
         <v>2.3969999999999998</v>
@@ -20245,7 +20362,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C22" s="25">
         <v>2.3969999999999998</v>
@@ -20342,7 +20459,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C23" s="24">
         <v>2.3780000000000001</v>
@@ -20423,7 +20540,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C24" s="24">
         <v>2.3780000000000001</v>
@@ -20520,7 +20637,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C25" s="24">
         <v>2.3780000000000001</v>
@@ -20617,7 +20734,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C26" s="24">
         <v>2.3780000000000001</v>
@@ -20714,7 +20831,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C27" s="24">
         <v>2.3780000000000001</v>
@@ -20811,7 +20928,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C28" s="24">
         <v>2.3780000000000001</v>
@@ -20892,7 +21009,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C29" s="24">
         <v>2.3780000000000001</v>
@@ -20989,7 +21106,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C30" s="24">
         <v>2.3780000000000001</v>
@@ -21086,7 +21203,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C31" s="24">
         <v>2.3780000000000001</v>
@@ -21165,7 +21282,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C32" s="25">
         <v>2.3780000000000001</v>
@@ -21244,7 +21361,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C33" s="24">
         <v>2.383</v>
@@ -21325,7 +21442,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C34" s="24">
         <v>2.383</v>
@@ -21422,7 +21539,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C35" s="24">
         <v>2.383</v>
@@ -21519,7 +21636,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C36" s="24">
         <v>2.383</v>
@@ -21616,7 +21733,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C37" s="24">
         <v>2.383</v>
@@ -21713,7 +21830,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C38" s="24">
         <v>2.383</v>
@@ -21794,7 +21911,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C39" s="24">
         <v>2.383</v>
@@ -21891,7 +22008,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C40" s="24">
         <v>2.383</v>
@@ -21988,7 +22105,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C41" s="24">
         <v>2.383</v>
@@ -22067,7 +22184,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C42" s="25">
         <v>2.383</v>
@@ -22146,7 +22263,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C43" s="24">
         <v>2.3940000000000001</v>
@@ -22227,7 +22344,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C44" s="24">
         <v>2.3940000000000001</v>
@@ -22324,7 +22441,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C45" s="24">
         <v>2.3940000000000001</v>
@@ -22421,7 +22538,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C46" s="24">
         <v>2.3940000000000001</v>
@@ -22518,7 +22635,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C47" s="24">
         <v>2.3940000000000001</v>
@@ -22615,7 +22732,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C48" s="24">
         <v>2.3940000000000001</v>
@@ -22696,7 +22813,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C49" s="24">
         <v>2.3940000000000001</v>
@@ -22793,7 +22910,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C50" s="24">
         <v>2.3940000000000001</v>
@@ -22890,7 +23007,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C51" s="24">
         <v>2.3940000000000001</v>
@@ -22987,7 +23104,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C52" s="25">
         <v>2.3940000000000001</v>
@@ -23084,7 +23201,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C53" s="24">
         <v>2.39</v>
@@ -23165,7 +23282,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C54" s="24">
         <v>2.39</v>
@@ -23262,7 +23379,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C55" s="24">
         <v>2.39</v>
@@ -23359,7 +23476,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C56" s="24">
         <v>2.39</v>
@@ -23456,7 +23573,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C57" s="24">
         <v>2.39</v>
@@ -23554,7 +23671,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C58" s="24">
         <v>2.39</v>
@@ -23635,7 +23752,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C59" s="24">
         <v>2.39</v>
@@ -23732,7 +23849,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C60" s="24">
         <v>2.39</v>
@@ -23829,7 +23946,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C61" s="24">
         <v>2.39</v>
@@ -23926,7 +24043,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C62" s="25">
         <v>2.39</v>
@@ -24005,7 +24122,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C63" s="24">
         <v>2.38</v>
@@ -24086,7 +24203,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C64" s="24">
         <v>2.38</v>
@@ -24183,7 +24300,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C65" s="24">
         <v>2.38</v>
@@ -24280,7 +24397,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C66" s="24">
         <v>2.38</v>
@@ -24377,7 +24494,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C67" s="24">
         <v>2.38</v>
@@ -24474,7 +24591,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C68" s="24">
         <v>2.38</v>
@@ -24555,7 +24672,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C69" s="24">
         <v>2.38</v>
@@ -24652,7 +24769,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C70" s="24">
         <v>2.38</v>
@@ -24749,7 +24866,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C71" s="24">
         <v>2.38</v>
@@ -24828,7 +24945,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C72" s="25">
         <v>2.38</v>
@@ -24907,7 +25024,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C73" s="24">
         <v>2.375</v>
@@ -24988,7 +25105,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C74" s="24">
         <v>2.375</v>
@@ -25085,7 +25202,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C75" s="24">
         <v>2.375</v>
@@ -25182,7 +25299,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C76" s="24">
         <v>2.375</v>
@@ -25279,7 +25396,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C77" s="24">
         <v>2.375</v>
@@ -25376,7 +25493,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C78" s="24">
         <v>2.375</v>
@@ -25457,7 +25574,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C79" s="24">
         <v>2.375</v>
@@ -25554,7 +25671,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C80" s="24">
         <v>2.375</v>
@@ -25651,7 +25768,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C81" s="24">
         <v>2.375</v>
@@ -25730,7 +25847,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C82" s="25">
         <v>2.375</v>
@@ -25809,7 +25926,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C83" s="24">
         <v>2.3839999999999999</v>
@@ -25890,7 +26007,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C84" s="24">
         <v>2.3839999999999999</v>
@@ -25987,7 +26104,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C85" s="24">
         <v>2.3839999999999999</v>
@@ -26084,7 +26201,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C86" s="24">
         <v>2.3839999999999999</v>
@@ -26181,7 +26298,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C87" s="24">
         <v>2.3839999999999999</v>
@@ -26278,7 +26395,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C88" s="24">
         <v>2.3839999999999999</v>
@@ -26359,7 +26476,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C89" s="24">
         <v>2.3839999999999999</v>
@@ -26456,7 +26573,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C90" s="24">
         <v>2.3839999999999999</v>
@@ -26553,7 +26670,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C91" s="24">
         <v>2.3839999999999999</v>
@@ -26632,7 +26749,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C92" s="25">
         <v>2.3839999999999999</v>
@@ -26711,7 +26828,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C93" s="24">
         <v>2.3889999999999998</v>
@@ -26792,7 +26909,7 @@
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C94" s="24">
         <v>2.3889999999999998</v>
@@ -26889,7 +27006,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C95" s="24">
         <v>2.3889999999999998</v>
@@ -26986,7 +27103,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C96" s="24">
         <v>2.3889999999999998</v>
@@ -27083,7 +27200,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C97" s="24">
         <v>2.3889999999999998</v>
@@ -27180,7 +27297,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C98" s="24">
         <v>2.3889999999999998</v>
@@ -27261,7 +27378,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C99" s="24">
         <v>2.3889999999999998</v>
@@ -27358,7 +27475,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C100" s="24">
         <v>2.3889999999999998</v>
@@ -27455,7 +27572,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C101" s="24">
         <v>2.3889999999999998</v>
@@ -27534,7 +27651,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C102" s="25">
         <v>2.3889999999999998</v>
@@ -27613,7 +27730,7 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C103" s="24">
         <v>2.3730000000000002</v>
@@ -27694,7 +27811,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C104" s="24">
         <v>2.3730000000000002</v>
@@ -27791,7 +27908,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C105" s="24">
         <v>2.3730000000000002</v>
@@ -27888,7 +28005,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C106" s="24">
         <v>2.3730000000000002</v>
@@ -27985,7 +28102,7 @@
         <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C107" s="24">
         <v>2.3730000000000002</v>
@@ -28082,7 +28199,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C108" s="24">
         <v>2.3730000000000002</v>
@@ -28163,7 +28280,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C109" s="24">
         <v>2.3730000000000002</v>
@@ -28260,7 +28377,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C110" s="24">
         <v>2.3730000000000002</v>
@@ -28357,7 +28474,7 @@
         <v>11</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C111" s="24">
         <v>2.3730000000000002</v>
@@ -28436,7 +28553,7 @@
         <v>11</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C112" s="25">
         <v>2.3730000000000002</v>
@@ -28515,7 +28632,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C113" s="24">
         <v>2.387</v>
@@ -28596,7 +28713,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C114" s="24">
         <v>2.387</v>
@@ -28693,7 +28810,7 @@
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C115" s="24">
         <v>2.387</v>
@@ -28790,7 +28907,7 @@
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C116" s="24">
         <v>2.387</v>
@@ -28887,7 +29004,7 @@
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C117" s="24">
         <v>2.387</v>
@@ -28984,7 +29101,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C118" s="24">
         <v>2.387</v>
@@ -29065,7 +29182,7 @@
         <v>12</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C119" s="24">
         <v>2.387</v>
@@ -29162,7 +29279,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C120" s="24">
         <v>2.387</v>
@@ -29259,7 +29376,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C121" s="24">
         <v>2.387</v>
@@ -29338,7 +29455,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C122" s="25">
         <v>2.387</v>
@@ -29417,7 +29534,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C123" s="49">
         <v>2.3780000000000001</v>
@@ -29498,7 +29615,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C124" s="49">
         <v>2.3780000000000001</v>
@@ -29595,7 +29712,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C125" s="49">
         <v>2.3780000000000001</v>
@@ -29692,7 +29809,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C126" s="49">
         <v>2.3780000000000001</v>
@@ -29789,7 +29906,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C127" s="49">
         <v>2.3780000000000001</v>
@@ -29886,7 +30003,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C128" s="49">
         <v>2.3780000000000001</v>
@@ -29967,7 +30084,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C129" s="49">
         <v>2.3780000000000001</v>
@@ -30064,7 +30181,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C130" s="49">
         <v>2.3780000000000001</v>
@@ -30161,7 +30278,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C131" s="49">
         <v>2.3780000000000001</v>
@@ -30240,7 +30357,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C132" s="50">
         <v>2.3780000000000001</v>
@@ -30319,7 +30436,7 @@
         <v>14</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C133" s="24">
         <v>2.363</v>
@@ -30400,7 +30517,7 @@
         <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C134" s="24">
         <v>2.363</v>
@@ -30497,7 +30614,7 @@
         <v>14</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C135" s="24">
         <v>2.363</v>
@@ -30594,7 +30711,7 @@
         <v>14</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C136" s="24">
         <v>2.363</v>
@@ -30691,7 +30808,7 @@
         <v>14</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C137" s="24">
         <v>2.363</v>
@@ -30788,7 +30905,7 @@
         <v>14</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C138" s="24">
         <v>2.363</v>
@@ -30869,7 +30986,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C139" s="24">
         <v>2.363</v>
@@ -30966,7 +31083,7 @@
         <v>14</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C140" s="24">
         <v>2.363</v>
@@ -31063,7 +31180,7 @@
         <v>14</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C141" s="24">
         <v>2.363</v>
@@ -31142,7 +31259,7 @@
         <v>14</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C142" s="25">
         <v>2.363</v>
@@ -31221,7 +31338,7 @@
         <v>15</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C143" s="24">
         <v>2.3679999999999999</v>
@@ -31302,7 +31419,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C144" s="24">
         <v>2.3679999999999999</v>
@@ -31399,7 +31516,7 @@
         <v>15</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C145" s="24">
         <v>2.3679999999999999</v>
@@ -31496,7 +31613,7 @@
         <v>15</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C146" s="24">
         <v>2.3679999999999999</v>
@@ -31593,7 +31710,7 @@
         <v>15</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C147" s="24">
         <v>2.3679999999999999</v>
@@ -31690,7 +31807,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C148" s="24">
         <v>2.3679999999999999</v>
@@ -31771,7 +31888,7 @@
         <v>15</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C149" s="24">
         <v>2.3679999999999999</v>
@@ -31868,7 +31985,7 @@
         <v>15</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C150" s="24">
         <v>2.3679999999999999</v>
@@ -31965,7 +32082,7 @@
         <v>15</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C151" s="24">
         <v>2.3679999999999999</v>
@@ -32044,7 +32161,7 @@
         <v>15</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C152" s="25">
         <v>2.3679999999999999</v>
@@ -32123,7 +32240,7 @@
         <v>16</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C153" s="24">
         <v>2.387</v>
@@ -32204,7 +32321,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C154" s="24">
         <v>2.387</v>
@@ -32301,7 +32418,7 @@
         <v>16</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C155" s="24">
         <v>2.387</v>
@@ -32398,7 +32515,7 @@
         <v>16</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C156" s="24">
         <v>2.387</v>
@@ -32495,7 +32612,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C157" s="24">
         <v>2.387</v>
@@ -32592,7 +32709,7 @@
         <v>16</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C158" s="24">
         <v>2.387</v>
@@ -32673,7 +32790,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C159" s="24">
         <v>2.387</v>
@@ -32770,7 +32887,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C160" s="24">
         <v>2.387</v>
@@ -32867,7 +32984,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C161" s="24">
         <v>2.387</v>
@@ -32946,7 +33063,7 @@
         <v>16</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C162" s="25">
         <v>2.387</v>
@@ -33025,7 +33142,7 @@
         <v>17</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C163" s="24">
         <v>2.39</v>
@@ -33106,7 +33223,7 @@
         <v>17</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C164" s="24">
         <v>2.39</v>
@@ -33203,7 +33320,7 @@
         <v>17</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C165" s="24">
         <v>2.39</v>
@@ -33300,7 +33417,7 @@
         <v>17</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C166" s="24">
         <v>2.39</v>
@@ -33397,7 +33514,7 @@
         <v>17</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C167" s="24">
         <v>2.39</v>
@@ -33494,7 +33611,7 @@
         <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C168" s="24">
         <v>2.39</v>
@@ -33575,7 +33692,7 @@
         <v>17</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C169" s="24">
         <v>2.39</v>
@@ -33672,7 +33789,7 @@
         <v>17</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C170" s="24">
         <v>2.39</v>
@@ -33769,7 +33886,7 @@
         <v>17</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C171" s="24">
         <v>2.39</v>
@@ -33848,7 +33965,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C172" s="25">
         <v>2.39</v>
@@ -33927,7 +34044,7 @@
         <v>18</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C173" s="24">
         <v>2.3929999999999998</v>
@@ -34008,7 +34125,7 @@
         <v>18</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C174" s="24">
         <v>2.3929999999999998</v>
@@ -34105,7 +34222,7 @@
         <v>18</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C175" s="24">
         <v>2.3929999999999998</v>
@@ -34202,7 +34319,7 @@
         <v>18</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C176" s="24">
         <v>2.3929999999999998</v>
@@ -34299,7 +34416,7 @@
         <v>18</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C177" s="24">
         <v>2.3929999999999998</v>
@@ -34378,7 +34495,7 @@
         <v>18</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C178" s="24">
         <v>2.3929999999999998</v>
@@ -34459,7 +34576,7 @@
         <v>18</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C179" s="24">
         <v>2.3929999999999998</v>
@@ -34556,7 +34673,7 @@
         <v>18</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C180" s="24">
         <v>2.3929999999999998</v>
@@ -34653,7 +34770,7 @@
         <v>18</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C181" s="24">
         <v>2.3929999999999998</v>
@@ -34750,7 +34867,7 @@
         <v>18</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C182" s="25">
         <v>2.3929999999999998</v>
@@ -34829,7 +34946,7 @@
         <v>19</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C183" s="24">
         <v>2.4159999999999999</v>
@@ -34910,7 +35027,7 @@
         <v>19</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C184" s="24">
         <v>2.4159999999999999</v>
@@ -35007,7 +35124,7 @@
         <v>19</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C185" s="24">
         <v>2.4159999999999999</v>
@@ -35104,7 +35221,7 @@
         <v>19</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C186" s="24">
         <v>2.4159999999999999</v>
@@ -35201,7 +35318,7 @@
         <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C187" s="24">
         <v>2.4159999999999999</v>
@@ -35298,7 +35415,7 @@
         <v>19</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C188" s="24">
         <v>2.4159999999999999</v>
@@ -35379,7 +35496,7 @@
         <v>19</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C189" s="24">
         <v>2.4159999999999999</v>
@@ -35476,7 +35593,7 @@
         <v>19</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C190" s="24">
         <v>2.4159999999999999</v>
@@ -35573,7 +35690,7 @@
         <v>19</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C191" s="24">
         <v>2.4159999999999999</v>
@@ -35652,7 +35769,7 @@
         <v>19</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C192" s="25">
         <v>2.4159999999999999</v>
@@ -35731,7 +35848,7 @@
         <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C193" s="24">
         <v>2.37</v>
@@ -35812,7 +35929,7 @@
         <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C194" s="24">
         <v>2.37</v>
@@ -35909,7 +36026,7 @@
         <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C195" s="24">
         <v>2.37</v>
@@ -36006,7 +36123,7 @@
         <v>20</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C196" s="24">
         <v>2.37</v>
@@ -36103,7 +36220,7 @@
         <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C197" s="24">
         <v>2.37</v>
@@ -36200,7 +36317,7 @@
         <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C198" s="24">
         <v>2.37</v>
@@ -36281,7 +36398,7 @@
         <v>20</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C199" s="24">
         <v>2.37</v>
@@ -36378,7 +36495,7 @@
         <v>20</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C200" s="24">
         <v>2.37</v>
@@ -36475,7 +36592,7 @@
         <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C201" s="24">
         <v>2.37</v>
@@ -36554,7 +36671,7 @@
         <v>20</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C202" s="25">
         <v>2.37</v>
@@ -36633,7 +36750,7 @@
         <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C203" s="24">
         <v>2.4060000000000001</v>
@@ -36714,7 +36831,7 @@
         <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C204" s="24">
         <v>2.4060000000000001</v>
@@ -36811,7 +36928,7 @@
         <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C205" s="24">
         <v>2.4060000000000001</v>
@@ -36908,7 +37025,7 @@
         <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C206" s="24">
         <v>2.4060000000000001</v>
@@ -37005,7 +37122,7 @@
         <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C207" s="24">
         <v>2.4060000000000001</v>
@@ -37084,7 +37201,7 @@
         <v>21</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C208" s="24">
         <v>2.4060000000000001</v>
@@ -37165,7 +37282,7 @@
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C209" s="24">
         <v>2.4060000000000001</v>
@@ -37262,7 +37379,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C210" s="24">
         <v>2.4060000000000001</v>
@@ -37359,7 +37476,7 @@
         <v>21</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C211" s="24">
         <v>2.4060000000000001</v>
@@ -37456,7 +37573,7 @@
         <v>21</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C212" s="25">
         <v>2.4060000000000001</v>
@@ -37535,7 +37652,7 @@
         <v>22</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C213" s="24">
         <v>2.39</v>
@@ -37616,7 +37733,7 @@
         <v>22</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C214" s="24">
         <v>2.39</v>
@@ -37713,7 +37830,7 @@
         <v>22</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C215" s="24">
         <v>2.39</v>
@@ -37810,7 +37927,7 @@
         <v>22</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C216" s="24">
         <v>2.39</v>
@@ -37907,7 +38024,7 @@
         <v>22</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C217" s="24">
         <v>2.39</v>
@@ -38004,7 +38121,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C218" s="24">
         <v>2.39</v>
@@ -38085,7 +38202,7 @@
         <v>22</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C219" s="24">
         <v>2.39</v>
@@ -38182,7 +38299,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C220" s="24">
         <v>2.39</v>
@@ -38279,7 +38396,7 @@
         <v>22</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C221" s="24">
         <v>2.39</v>
@@ -38358,7 +38475,7 @@
         <v>22</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C222" s="25">
         <v>2.39</v>
@@ -38437,7 +38554,7 @@
         <v>23</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C223" s="24">
         <v>2.41</v>
@@ -38518,7 +38635,7 @@
         <v>23</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C224" s="24">
         <v>2.41</v>
@@ -38615,7 +38732,7 @@
         <v>23</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C225" s="24">
         <v>2.41</v>
@@ -38712,7 +38829,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C226" s="24">
         <v>2.41</v>
@@ -38809,7 +38926,7 @@
         <v>23</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C227" s="24">
         <v>2.41</v>
@@ -38906,7 +39023,7 @@
         <v>23</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C228" s="24">
         <v>2.41</v>
@@ -38987,7 +39104,7 @@
         <v>23</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C229" s="24">
         <v>2.41</v>
@@ -39084,7 +39201,7 @@
         <v>23</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C230" s="24">
         <v>2.41</v>
@@ -39181,7 +39298,7 @@
         <v>23</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C231" s="24">
         <v>2.41</v>
@@ -39278,7 +39395,7 @@
         <v>23</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C232" s="25">
         <v>2.41</v>
@@ -39375,7 +39492,7 @@
         <v>24</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C233" s="24">
         <v>2.4060000000000001</v>
@@ -39456,7 +39573,7 @@
         <v>24</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C234" s="24">
         <v>2.4060000000000001</v>
@@ -39553,7 +39670,7 @@
         <v>24</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C235" s="24">
         <v>2.4060000000000001</v>
@@ -39650,7 +39767,7 @@
         <v>24</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C236" s="24">
         <v>2.4060000000000001</v>
@@ -39747,7 +39864,7 @@
         <v>24</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C237" s="24">
         <v>2.4060000000000001</v>
@@ -39844,7 +39961,7 @@
         <v>24</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C238" s="24">
         <v>2.4060000000000001</v>
@@ -39925,7 +40042,7 @@
         <v>24</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C239" s="24">
         <v>2.4060000000000001</v>
@@ -40022,7 +40139,7 @@
         <v>24</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C240" s="24">
         <v>2.4060000000000001</v>
@@ -40119,7 +40236,7 @@
         <v>24</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C241" s="24">
         <v>2.4060000000000001</v>
@@ -40198,7 +40315,7 @@
         <v>24</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C242" s="25">
         <v>2.4060000000000001</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sultan/Jobs/Camarones/Jenner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4CADD6-EF95-C44E-9ECC-28616E53EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A08A04-5A90-5E47-A6DF-5CC27A4AA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="7620" windowWidth="51200" windowHeight="28300" tabRatio="625" xr2:uid="{FBD9E2A2-EFE7-4A77-BB31-BF1FB3A52DF0}"/>
+    <workbookView xWindow="-51200" yWindow="7620" windowWidth="51200" windowHeight="28300" tabRatio="625" activeTab="2" xr2:uid="{FBD9E2A2-EFE7-4A77-BB31-BF1FB3A52DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indices" sheetId="16" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,10 +1027,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,13 +1042,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD43B1-287C-704F-A137-C37C0EA7CD46}">
   <dimension ref="C4:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1442,17 +1451,17 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
       <c r="N6" t="s">
         <v>86</v>
       </c>
@@ -1472,7 +1481,7 @@
   <dimension ref="A1:V242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:V1"/>
+      <selection activeCell="A2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1521,7 @@
       <c r="I1" s="77"/>
       <c r="J1" s="77"/>
       <c r="K1" s="78"/>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="89" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="79"/>
@@ -18416,8 +18425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E096407-6D50-414E-9F35-F631B922309B}">
   <dimension ref="A1:AE242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18444,43 +18453,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
     </row>
     <row r="2" spans="1:31" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
